--- a/final_data_pipeline/output/311942_elec_options.xlsx
+++ b/final_data_pipeline/output/311942_elec_options.xlsx
@@ -765,7 +765,7 @@
         <v>64</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -860,7 +860,7 @@
         <v>64</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1050,7 +1050,7 @@
         <v>64</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1145,7 +1145,7 @@
         <v>64</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1240,7 +1240,7 @@
         <v>64</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1335,7 +1335,7 @@
         <v>64</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1430,7 +1430,7 @@
         <v>64</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1525,7 +1525,7 @@
         <v>64</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1620,7 +1620,7 @@
         <v>64</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1715,7 +1715,7 @@
         <v>64</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1810,7 +1810,7 @@
         <v>64</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -2475,7 +2475,7 @@
         <v>64</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2570,7 +2570,7 @@
         <v>64</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2665,7 +2665,7 @@
         <v>64</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2760,7 +2760,7 @@
         <v>64</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2855,7 +2855,7 @@
         <v>64</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -2950,7 +2950,7 @@
         <v>64</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE25">
         <v>8000</v>
